--- a/Assets/Excel/DialoguePieceInfo.xlsx
+++ b/Assets/Excel/DialoguePieceInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE5D986-6004-4239-9E8F-03C32A7289D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D34F99-3297-4F96-ACB3-F038AFB095AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,6 @@
     <t>喂，那边那个新来的！站住！我看你脚步虚浮，两眼发直，是不是三天没吃饭了？</t>
   </si>
   <si>
-    <t>text:确实...快饿晕了。,targetId:1,isTakeTask:false;
-text:我不饿，我可是很强的！,targetId:2,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哼，算你诚实。在这个森林里，不懂得找吃的，还没见到怪物就先饿死了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,27 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:呃...毒蘑菇？。,targetId:3,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>听好了，去村外的树林采集些普通蘑菇和毒蘑菇回来。红色的能吃，紫色的虽然有毒，但药剂师很需要。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啧，真是个贪心的小鬼。如果你能带回来，我这里有个刚摘的红苹果赏给你。吃了它能恢复生命值，这总行了吧？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task0-NotAccepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task0-Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,37 +89,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>task0-Complete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回来了？让我看看你的背囊...嗯…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:为了肚子，交给我吧！,targetId:-1,isTakeTask:true;
-text:白干活吗？有报酬吗？,targetId:4,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:你能教我生存的方法吗？,targetId:3,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:都在这了，长官。,targetId:9,isTakeTask:false;
-text:应该...没采错吧？,targetId:9,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷蒙仔细检查了每一朵蘑菇）不错，分拣得很完美。看来你已经掌握了野外生存的第一课：不要把看起来鲜艳的东西随便塞进嘴里。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:那是当然。,targetId:10,isTakeTask:false;
-text:谢谢指导。,targetId:10,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干得好。拿去吧，这是之前承诺的红苹果。记住，在这个危险的世界里，保持健康的血量（HP）往往比拥有利剑更重要。</t>
   </si>
   <si>
@@ -156,29 +112,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:我想找点更有挑战性的事做。,targetId:12,isTakeTask:false;
-text:我的拳头已经挥腻了。,targetId:12,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:史莱姆？听起来很好欺负。,targetId:13,isTakeTask:false;
-text:海龟？它们的壳似乎很硬。,targetId:14,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>别大意！史莱姆的粘液会减缓你的速度，如果你被包围，连跑都跑不掉。战场上死得最快的往往是那些自以为是的家伙。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>观察力不错。对付海龟不能硬砍，要抓住它们攻击时的破绽，或者绕到侧面。看来你有成为战士的潜质。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:受教了。,targetId:15,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:呃...我会注意的。,targetId:15,isTakeTask:false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,16 +125,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:我不小心忘了它们长什么样...,targetId:8,isTakeTask:false;
-text:我只是回来歇一口气。,targetId:9,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怎么，被乌龟打得找不着北？还是被史莱姆粘住了脚？商队还在等着通车呢，不要浪费时间！</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task1-Start</t>
   </si>
   <si>
     <t>所以我刚才说了不要蛮干！
@@ -214,24 +144,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:为别！我这就去！,targetId:-1,isTakeTask:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task1-Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task1-NotAccepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去清理掉它们。如果你能证明自己不是个只会采蘑菇的农夫，我就把你手里那根破木棍换成一把真正的铁剑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text:这怪物比我想象的难缠...,targetId:17,isTakeTask:true;
-text:那些怪物看起来太恶心了...,targetId:16,isTakeTask:false;</t>
+    <t>text:确实...快饿晕了。,targetId:1,isTakeTask:false;
+text:我不饿，我可是很强的！,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:你能教我生存的方法吗？,targetId:3,isTakeTask:false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:呃...毒蘑菇？。,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:为了肚子，交给我吧！,targetId:-1,isTakeTask:true;
+text:白干活吗？有报酬吗？,targetId:4,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task0-NotAccepted-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task0-NotAccepted-1</t>
+  </si>
+  <si>
+    <t>task0-NotAccepted-2</t>
+  </si>
+  <si>
+    <t>task0-NotAccepted-3</t>
+  </si>
+  <si>
+    <t>task0-NotAccepted-4</t>
+  </si>
+  <si>
+    <t>task0-Start-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task0-Start-1</t>
+  </si>
+  <si>
+    <t>task0-Start-2</t>
+  </si>
+  <si>
+    <t>text:我不小心忘了它们长什么样...,targetId:1,isTakeTask:false;
+text:我只是回来歇一口气。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task0-Complete-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task0-Complete-1</t>
+  </si>
+  <si>
+    <t>task0-Complete-2</t>
+  </si>
+  <si>
+    <t>text:都在这了，长官。,targetId:1,isTakeTask:false;
+text:应该...没采错吧？,targetId:1,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:那是当然。,targetId:2,isTakeTask:false;
+text:谢谢指导。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task1-NotAccepted-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task1-NotAccepted-1</t>
+  </si>
+  <si>
+    <t>task1-NotAccepted-2</t>
+  </si>
+  <si>
+    <t>task1-NotAccepted-3</t>
+  </si>
+  <si>
+    <t>task1-NotAccepted-4</t>
+  </si>
+  <si>
+    <t>text:我想找点更有挑战性的事做。,targetId:1,isTakeTask:false;
+text:我的拳头已经挥腻了。,targetId:1,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:史莱姆？听起来很好欺负。,targetId:2,isTakeTask:false;
+text:海龟？它们的壳似乎很硬。,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:呃...我会注意的。,targetId:4,isTakeTask:false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:受教了。,targetId:4,isTakeTask:false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task1-Start-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task1-Start-1</t>
+  </si>
+  <si>
+    <t>task1-Start-2</t>
+  </si>
+  <si>
+    <t>text:这怪物比我想象的难缠...,targetId:1,isTakeTask:true;
+text:那些怪物看起来太恶心了...,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈！看看这满身的粘液。看来那群史莱姆给你留下了深刻的印象，不过既然你站在这里，说明它们已经是过去式了。</t>
+  </si>
+  <si>
+    <t>做得好。商队刚刚已经顺利通过了。看来你不仅仅会采蘑菇，作为一名新手战士，你的坚韧值得称赞。</t>
+  </si>
+  <si>
+    <r>
+      <t>放心，雷蒙从不食言。接住！\n这是我年轻时用过的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。虽然剑鞘有点磨损，但剑刃依旧锋利。好好爱护它，从现在起，它就是你在战场上唯一的依靠。</t>
+    </r>
+  </si>
+  <si>
+    <t>task1-Complete-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task1-Complete-1</t>
+  </si>
+  <si>
+    <t>task1-Complete-2</t>
+  </si>
+  <si>
+    <t>text:别！我这就去！,targetId:-1,isTakeTask:true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:别提了，但我把路清理干净了。,targetId:1,isTakeTask:false;
+text:简直是一场噩梦…,targetId:1,isTakeTask:false;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:终于有像样的武器了！,targetId:-1,isTakeTask:true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:那么，关于那把剑…,targetId:2,isTakeTask:false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +344,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -560,18 +664,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="149.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -596,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -613,13 +717,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -630,13 +734,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -647,16 +751,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -664,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -681,13 +785,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -698,13 +802,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -715,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -732,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -749,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -766,16 +870,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -783,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -800,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -817,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -834,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -851,16 +955,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -868,13 +972,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -885,13 +989,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -902,23 +1006,68 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/DialoguePieceInfo.xlsx
+++ b/Assets/Excel/DialoguePieceInfo.xlsx
@@ -1,351 +1,759 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D34F99-3297-4F96-ACB3-F038AFB095AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B7A343-7FBB-42DA-AF87-F42CA032A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7ED7948E-4C73-4A5D-8914-27E9B5107D2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="对话数据 (3)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dialogueOptionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喂，那边那个新来的！站住！我看你脚步虚浮，两眼发直，是不是三天没吃饭了？</t>
-  </si>
-  <si>
-    <t>哼，算你诚实。在这个森林里，不懂得找吃的，还没见到怪物就先饿死了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强？哈！别逗了。上一个像你这么说话的新手，因为误食毒蘑菇，现在还在医务室里口吐白沫呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听好了，去村外的树林采集些普通蘑菇和毒蘑菇回来。红色的能吃，紫色的虽然有毒，但药剂师很需要。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啧，真是个贪心的小鬼。如果你能带回来，我这里有个刚摘的红苹果赏给你。吃了它能恢复生命值，这总行了吧？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你怎么又回来了？两手空空的，难道是想请我吃空气蘑菇吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:成交！为了苹果！,targetId:-1,isTakeTask:true;
-text:我再考虑考虑。,targetId:-1,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（雷蒙重重地叹了口气）听好了，把耳朵竖起来！
-普通蘑菇是单调的灰色，毒蘑菇是鲜艳的红色。
-别再让我重复第三遍，快去！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:这次记住了，长官！,targetId:-1,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息？在战场上，敌人可不会给你休息的时间！趁太阳还没下山，快滚回树林里去干活！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:这就去！,targetId:-1,isTakeTask:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回来了？让我看看你的背囊...嗯…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷蒙仔细检查了每一朵蘑菇）不错，分拣得很完美。看来你已经掌握了野外生存的第一课：不要把看起来鲜艳的东西随便塞进嘴里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干得好。拿去吧，这是之前承诺的红苹果。记住，在这个危险的世界里，保持健康的血量（HP）往往比拥有利剑更重要。</t>
-  </si>
-  <si>
-    <t>text:谢谢雷蒙队长！,targetId:-1,isTakeTask:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来那个苹果让你恢复了不少精神。既然吃饱了，就别赖在这儿晒太阳了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口气不小。正好，最近商队投诉，说村口的路被一群史莱姆(Slime)和海龟(Turtle)堵住了。那些粘糊糊的东西虽然不强，但实在太烦人了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别大意！史莱姆的粘液会减缓你的速度，如果你被包围，连跑都跑不掉。战场上死得最快的往往是那些自以为是的家伙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察力不错。对付海龟不能硬砍，要抓住它们攻击时的破绽，或者绕到侧面。看来你有成为战士的潜质。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:为了铁剑，冲啊！,targetId:-1,isTakeTask:true;
-text:那些怪物看起来太恶心了...,targetId:-1,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么，被乌龟打得找不着北？还是被史莱姆粘住了脚？商队还在等着通车呢，不要浪费时间！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以我刚才说了不要蛮干！
-史莱姆的粘液很烦人，注意保持距离；
-海龟缩壳的时候防御力极高，别浪费力气砍龟壳，等它伸出头或者攻击后的僵直时间再打！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:这次记住了！,targetId:-1,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磨刀？我看你是在磨洋工！
-快去！在天黑之前把路清理出来，否则那把铁剑我就送给隔壁村的二傻子了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去清理掉它们。如果你能证明自己不是个只会采蘑菇的农夫，我就把你手里那根破木棍换成一把真正的铁剑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:确实...快饿晕了。,targetId:1,isTakeTask:false;
-text:我不饿，我可是很强的！,targetId:2,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:你能教我生存的方法吗？,targetId:3,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:呃...毒蘑菇？。,targetId:3,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:为了肚子，交给我吧！,targetId:-1,isTakeTask:true;
-text:白干活吗？有报酬吗？,targetId:4,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>task0-NotAccepted-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站住！看你面色苍白，走路摇摇晃晃的……你是从村外逃难来的吗？我是这里的守卫队长 Ramon。</t>
   </si>
   <si>
     <t>task0-NotAccepted-1</t>
   </si>
   <si>
+    <t>失忆了？这年头在野外晕倒还能活着醒来，你命真大。看你的样子，身体已经虚弱到极点了。</t>
+  </si>
+  <si>
     <t>task0-NotAccepted-2</t>
   </si>
   <si>
+    <t>这里是人类村庄的边界。看你这副样子，确实像是个饿了好几天的流浪汉，连站都站不稳了。</t>
+  </si>
+  <si>
     <t>task0-NotAccepted-3</t>
   </si>
   <si>
+    <t>本来我该给你几个苹果充饥，但最近村子外面的史莱姆和甲龟发疯似的攻击商队，村里补给断了好几天，我也没办法白白施舍给你。不过，如果你愿意帮我个小忙，我或许能指点你如何在这里活下去。</t>
+  </si>
+  <si>
     <t>task0-NotAccepted-4</t>
   </si>
   <si>
+    <t>放心，不需要你现在去战斗。村口附近长着两种蘑菇，我要你去采一个普通蘑菇和一个毒蘑菇带回来给我。作为交换，我会告诉你生存的法则。</t>
+  </si>
+  <si>
+    <t>task0-NotAccepted-5</t>
+  </si>
+  <si>
+    <t>这就对了。记住：普通蘑菇能恢复生命，毒蘑菇会让你痛不欲生。只有学会分辨它们，你才能在这个乱世活下去。快去快回！</t>
+  </si>
+  <si>
+    <t>task0-NotAccepted-6</t>
+  </si>
+  <si>
+    <t>哼，连这点小事都不愿意做？在这个世道，不劳动的人只有死路一条。如果你改变主意了，再来找我吧。</t>
+  </si>
+  <si>
     <t>task0-Start-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两手空空？看来你还没完成我交代的任务。在这个危机四伏的村口，行动迟缓可是致命的。</t>
   </si>
   <si>
     <t>task0-Start-1</t>
   </si>
   <si>
+    <t>听好了，我只说最后一遍：一个普通蘑菇用来救命，一个毒蘑菇用来换取物资。别搞混了，快去！</t>
+  </si>
+  <si>
     <t>task0-Start-2</t>
   </si>
   <si>
-    <t>text:我不小心忘了它们长什么样...,targetId:1,isTakeTask:false;
-text:我只是回来歇一口气。,targetId:2,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task0-Complete-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task0-Complete-1</t>
-  </si>
-  <si>
-    <t>task0-Complete-2</t>
-  </si>
-  <si>
-    <t>text:都在这了，长官。,targetId:1,isTakeTask:false;
-text:应该...没采错吧？,targetId:1,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:那是当然。,targetId:2,isTakeTask:false;
-text:谢谢指导。,targetId:2,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>睁大眼睛看看脚下！它们通常生长在树荫下或者草丛茂盛的地方。别告诉我你连这点观察力都没有。</t>
+  </si>
+  <si>
+    <t>task0-Start-3</t>
+  </si>
+  <si>
+    <t>那就别在这里浪费时间。现在的每一秒钟，村外的野兽都可能再次发起进攻。</t>
+  </si>
+  <si>
+    <t>task0-Completed-0</t>
+  </si>
+  <si>
+    <t>哦？这么快就回来了。让我看看……普通的用来止血，有毒的可以用来制作陷阱或是和某些商人做特殊交换。你分得很清楚，没让我失望。</t>
+  </si>
+  <si>
+    <t>task0-Completed-1</t>
+  </si>
+  <si>
+    <t>在这个混乱的时候，细心是一种稀缺的品质。看你干活干净利落，身手比一般的难民敏捷多了。</t>
+  </si>
+  <si>
+    <t>task0-Completed-2</t>
+  </si>
+  <si>
+    <t>哈哈，放心，我Ramon从不赖账。这些蘑菇算是你为村庄做的第一份贡献，看你干活这么利索，我都开始怀疑你失忆前是不是个练家子了。</t>
+  </si>
+  <si>
+    <t>task0-Completed-3</t>
+  </si>
+  <si>
+    <t>既然你证明了自己的生存能力，我有必要告诉你现在的真实处境。最近村外的史莱姆和甲龟变得异常狂暴，甚至开始主动攻击人类，我们的人手严重不足。</t>
+  </si>
+  <si>
+    <t>task0-Completed-4</t>
   </si>
   <si>
     <t>task1-NotAccepted-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就像我刚才提到的，最近村外的日子不太平。那些平日里温顺的史莱姆和甲龟，最近不知发了什么疯，开始疯狂攻击过往的商队和村民。</t>
   </si>
   <si>
     <t>task1-NotAccepted-1</t>
   </si>
   <si>
+    <t>卫兵？哼，大部分卫兵都在前线死守，村里的守备力量已经捉襟见肘了。我们现在连一把多余的剑都不敢随便发给陌生人。</t>
+  </si>
+  <si>
     <t>task1-NotAccepted-2</t>
   </si>
   <si>
+    <t>确实是个大麻烦。如果不尽快控制住村口的局势，连这里的补给线都要断了。我们需要每一个能战斗的人，包括你。</t>
+  </si>
+  <si>
     <t>task1-NotAccepted-3</t>
   </si>
   <si>
     <t>task1-NotAccepted-4</t>
   </si>
   <si>
-    <t>text:我想找点更有挑战性的事做。,targetId:1,isTakeTask:false;
-text:我的拳头已经挥腻了。,targetId:1,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:史莱姆？听起来很好欺负。,targetId:2,isTakeTask:false;
-text:海龟？它们的壳似乎很硬。,targetId:3,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:呃...我会注意的。,targetId:4,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:受教了。,targetId:4,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>怎么，怕了？如果连最弱的史莱姆都不敢用拳头面对，那你也不配在这个世道活下去。这是对你的考验，只要你完成任务，我就把这把精制铁剑送给你。</t>
+  </si>
+  <si>
+    <t>task1-NotAccepted-5</t>
+  </si>
+  <si>
+    <t>好胆识！记住，战斗时注意闪避，利用你的身手周旋。别让我失望，去让那些怪物尝尝苦头！</t>
+  </si>
+  <si>
+    <t>task1-NotAccepted-6</t>
+  </si>
+  <si>
+    <t>看来我看错你了。连面对几只小怪物的勇气都没有，那你就在这里等着被饿死吧。那把铁剑会留给真正的勇士。</t>
   </si>
   <si>
     <t>task1-Start-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还在村子里晃悠什么？那把铁剑可不会自己飞到你手里。我还没收到那两只怪物的死讯。</t>
   </si>
   <si>
     <t>task1-Start-1</t>
   </si>
   <si>
+    <t>如果你只会像木头一样站着对砍，那当然吃亏！战斗的精髓在于移动。打一下，退一步，绕到它们侧面或者身后。用你的脑子战斗，而不是蛮力！</t>
+  </si>
+  <si>
     <t>task1-Start-2</t>
   </si>
   <si>
-    <t>text:这怪物比我想象的难缠...,targetId:1,isTakeTask:true;
-text:那些怪物看起来太恶心了...,targetId:2,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈！看看这满身的粘液。看来那群史莱姆给你留下了深刻的印象，不过既然你站在这里，说明它们已经是过去式了。</t>
-  </si>
-  <si>
-    <t>做得好。商队刚刚已经顺利通过了。看来你不仅仅会采蘑菇，作为一名新手战士，你的坚韧值得称赞。</t>
-  </si>
-  <si>
-    <r>
-      <t>放心，雷蒙从不食言。接住！\n这是我年轻时用过的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>铁剑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。虽然剑鞘有点磨损，但剑刃依旧锋利。好好爱护它，从现在起，它就是你在战场上唯一的依靠。</t>
-    </r>
-  </si>
-  <si>
-    <t>task1-Complete-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task1-Complete-1</t>
-  </si>
-  <si>
-    <t>task1-Complete-2</t>
-  </si>
-  <si>
-    <t>text:别！我这就去！,targetId:-1,isTakeTask:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:别提了，但我把路清理干净了。,targetId:1,isTakeTask:false;
-text:简直是一场噩梦…,targetId:1,isTakeTask:false;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:终于有像样的武器了！,targetId:-1,isTakeTask:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:那么，关于那把剑…,targetId:2,isTakeTask:false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>就在村口外面！那些红色的粘液怪（史莱姆）和硬壳的家伙（甲龟）正在四处游荡。只要你走出安全区，想避开它们都难。</t>
+  </si>
+  <si>
+    <t>task1-Start-3</t>
+  </si>
+  <si>
+    <t>那最好快点。我的耐心和库存的铁剑一样，都是有限的。去证明你配得上那把武器！</t>
+  </si>
+  <si>
+    <t>task1-Completed-0</t>
+  </si>
+  <si>
+    <t>哈！我刚才在望楼上看到了。你真的赤手空拳干掉了它们？那记勾拳打得真漂亮，看来我之前太小看你了。</t>
+  </si>
+  <si>
+    <t>task1-Completed-1</t>
+  </si>
+  <si>
+    <t>能在绝境中生存下来就是本事。既然你能用拳头活下来，那有了武器，你就能保护更多人。</t>
+  </si>
+  <si>
+    <t>task1-Completed-2</t>
+  </si>
+  <si>
+    <t>好大的口气！不过我喜欢你的自信。像你这样身手不凡的人，正是我们现在急需的。</t>
+  </si>
+  <si>
+    <t>task1-Completed-4</t>
+  </si>
+  <si>
+    <t>task1-Completed-5</t>
+  </si>
+  <si>
+    <t>既然你有了武器，也就有了承担更大责任的能力。我一直想知道，为什么这些野物会频繁攻击村庄。我想委托你去密林深处调查一番，如果是你的话，或许能查出真相。</t>
+  </si>
+  <si>
+    <t>text:交给我吧，我会去查个水落石出。,targetId:-1,isTakeTask:false;</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-0</t>
+  </si>
+  <si>
+    <t>既然你已经武装起来了，我也就不把你当外人看了。那把剑不是装饰品，现在村庄面临的危机远比你在村口看到的要严重。</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-1</t>
+  </si>
+  <si>
+    <t>没错。根据守卫们的观察，那些攻击村庄的史莱姆和甲龟，全部都是从密林深处涌出来的。那里一定发生了什么变故。</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-2</t>
+  </si>
+  <si>
+    <t>你的直觉很准。空气中弥漫着一股不安的气息。所有的迹象都指向同一个源头——密林深处。</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-3</t>
+  </si>
+  <si>
+    <t>我需要有人深入密林腹地去调查。这很危险，你要一路杀进去，直到密林的最深处，搞清楚到底是什么在驱使这些野物攻击人类。村里的卫兵要死守防线，我只能拜托身手不凡的你了。</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-4</t>
+  </si>
+  <si>
+    <t>这是一次深入敌后的侦查。如果你能带回有价值的情报，或许就能救下整个村庄。怎么样，你敢去吗？</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-5</t>
+  </si>
+  <si>
+    <t>很好！握紧你的剑，一路杀过去。不管你在深处看到了什么，记得活着回来告诉我。祝你好运！</t>
+  </si>
+  <si>
+    <t>task2-NotAccepted-6</t>
+  </si>
+  <si>
+    <t>谨慎也是一种生存智慧……但危机不会因为你的退缩而消失。等你觉得手中的剑够锋利了，再来找我。</t>
+  </si>
+  <si>
+    <t>task2-Start-0</t>
+  </si>
+  <si>
+    <t>task2-Start-1</t>
+  </si>
+  <si>
+    <t>那些怪物就是最大的线索！哪里怪物最密集，哪里就是问题的核心。握紧你的剑，杀出一条血路来，别让它们挡住你的脚步。</t>
+  </si>
+  <si>
+    <t>task2-Start-2</t>
+  </si>
+  <si>
+    <t>沿着怪物涌来的方向逆流而上。它们是从密林最深处出来的，只要你一直往那个方向走，就一定会发现什么。</t>
+  </si>
+  <si>
+    <t>task2-Start-3</t>
+  </si>
+  <si>
+    <t>那就抓紧时间。每一分钟过去，村庄的防线就多一分危险。我在这里等着你的好消息，快去！</t>
+  </si>
+  <si>
+    <t>task2-Completed-0</t>
+  </si>
+  <si>
+    <t>task2-Completed-1</t>
+  </si>
+  <si>
+    <t>task2-Completed-2</t>
+  </si>
+  <si>
+    <t>它们很狡猾。那个旋转的漩涡一定是传送门。哥布林就是通过它，秘密连接了地牢世界和我们这里，不停的熬着毒药，蛊惑野物！</t>
+  </si>
+  <si>
+    <t>task2-Completed-3</t>
+  </si>
+  <si>
+    <t>那是传送门！哥布林利用它打通了地牢世界和人类世界的连接。难怪野物这么不正常，是另一个哥布林通过传送门来搞的鬼！</t>
+  </si>
+  <si>
+    <t>task2-Completed-4</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-0</t>
+  </si>
+  <si>
+    <t>就像我刚才推断的，那个漩涡就是哥布林入侵的通道。只要它还开着，敌人就可能涌入我们的世界，造成更大的破坏</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-1</t>
+  </si>
+  <si>
+    <t>没那么简单。那个传送门是由魔法维持的，普通的物理攻击无法摧毁它。况且传送门在某种程度上能够帮助我们查明真相，冒然摧毁反而丧失先机</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-2</t>
+  </si>
+  <si>
+    <t>你说得对，情报就是生命。我们不知道传送门对面有多少军队，也不知道它们到底策划了什么规模的进攻。这正是需要你去调查的原因。</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-3</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-4</t>
+  </si>
+  <si>
+    <t>确实疯狂，但只有疯狂的勇士才能拯救现在的局面。只要找到它们进攻计划的证据，我们或许就能找到反击的机会。</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-5</t>
+  </si>
+  <si>
+    <t>勇气可嘉！那个传送门就在密林深处。深吸一口气，跳进去。无论看到什么，一定要查清楚它们的最终目的。全村人的性命就交给你了！</t>
+  </si>
+  <si>
+    <t>task3-NotAccepted-6</t>
+  </si>
+  <si>
+    <t>我理解你的恐惧，面对未知的世界谁都会颤抖。但请记住，如果我们坐以待毙，战火迟早会烧到这里。希望你能尽快改变主意。</t>
+  </si>
+  <si>
+    <t>task3-Start-0</t>
+  </si>
+  <si>
+    <t>task3-Start-1</t>
+  </si>
+  <si>
+    <t>这是意料之中的。那是哥布林的老巢，它们肯定会拼死抵抗。但别忘了，你现在不仅是为自己而战，更是为了身后这个村庄。坚持住，杀光它们，直到它们再也不敢阻挡你。</t>
+  </si>
+  <si>
+    <t>task3-Start-2</t>
+  </si>
+  <si>
+    <t>不可能没有线索。哥布林虽然狡猾，但它们总会留下命令或计划书。仔细搜查每一个角落，特别是它们首领所在的地方，一定藏着关于这场入侵的秘密。</t>
+  </si>
+  <si>
+    <t>task3-Start-3</t>
+  </si>
+  <si>
+    <t>就在密林深处！那口绿色大锅旁边旋转的漩涡就是入口。别再浪费时间了，每一秒的拖延都可能让敌人多一分准备。</t>
+  </si>
+  <si>
+    <t>task3-Completed-0</t>
+  </si>
+  <si>
+    <t>task3-Completed-1</t>
+  </si>
+  <si>
+    <t>task3-Completed-2</t>
+  </si>
+  <si>
+    <t>task3-Completed-3</t>
+  </si>
+  <si>
+    <t>task4-NotAccepted-0</t>
+  </si>
+  <si>
+    <t>task4-NotAccepted-1</t>
+  </si>
+  <si>
+    <t>task4-NotAccepted-2</t>
+  </si>
+  <si>
+    <t>task4-Start-0</t>
+  </si>
+  <si>
+    <t>task4-Start-1</t>
+  </si>
+  <si>
+    <t>task4-Start-2</t>
+  </si>
+  <si>
+    <t>task4-Start-3</t>
+  </si>
+  <si>
+    <t>task4-Completed-0</t>
+  </si>
+  <si>
+    <t>task4-Completed-1</t>
+  </si>
+  <si>
+    <t>task4-Completed-2</t>
+  </si>
+  <si>
+    <t>text:我……我不记得了，头好痛。,targetId:1,isTakeTask:false;
+text:这里是哪？我好饿，没力气了……,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:抱歉，我忘了具体需要找什么了。,targetId:1,isTakeTask:false;
+text:那些蘑菇具体长在什么位置？,targetId:2,isTakeTask:false;
+text:我只是路过休息一下，这就去办。,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:为什么不派卫兵去清理它们？,targetId:1,isTakeTask:false;
+text:看来你们遇到大麻烦了。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:你是说……赤手空拳？这太疯狂了。,targetId:4,isTakeTask:false;
+text:没问题，对付它们不需要武器。,targetId:5,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:为了那把剑，我干了！,targetId:-1,isTakeTask:true;
+text:我还没疯，我不想去送死。,targetId:6,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:赤手空拳太难了，打它们我很吃亏。,targetId:1,isTakeTask:false;
+text:我找不到它们具体在哪。,targetId:2,isTakeTask:false;
+text:我只是回来调整一下状态，马上就去。,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:这并不容易，差点就没命了。,targetId:1,isTakeTask:false;
+text:只是热身而已，这些怪物太弱了。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:你是说那些发狂的动物？,targetId:1,isTakeTask:false;
+text:我有种不祥的预感。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:交给我吧，我会查明真相的。,targetId:4,isTakeTask:false;
+text:听起来像是去送死，我有什么好处？,targetId:4,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:为了村庄的安全，我义不容辞。,targetId:5,isTakeTask:true;
+text:密林太深了，我还没准备好。,targetId:6,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:密林里的怪物太多了，我很难深入。,targetId:1,isTakeTask:false;
+text:树林太密，我有点迷失方向了。,targetId:2,isTakeTask:false;
+text:我只是回来休整一下，马上就回去。,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:有一口熬着绿色毒药的大锅，还有一个漩涡。,targetId:1,isTakeTask:false;
+text:那里有个奇怪的传送门，还有刺鼻的药水味。,targetId:1,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:哥布林？但我没看到它们。,targetId:-1,isTakeTask:false;
+text:那个漩涡又是做什么的？,targetId:-1,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:我去把那个传送门砸了。,targetId:1,isTakeTask:false;
+text:我们对那边的情况一无所知。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:别担心，我会把它们的老底翻出来的。,targetId:5,isTakeTask:true;
+text:抱歉，我还没准备好面对这种危险。,targetId:6,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:传送门那边敌人太多了，我得回来补给一下。,targetId:1,isTakeTask:false;
+text:我还没找到什么有价值的线索。,targetId:2,isTakeTask:false;
+text:那个传送门具体在什么位置？我迷路了。,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:继承遗志，决一死战！,targetId:-1,isTakeTask:true;
+text:我需要再检查一下装备。,targetId:-1,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:谢谢，我会准备好的。,targetId:-1,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:谢谢，我会善用它的。,targetId:5,isTakeTask:true;
+text:终于有象样的家伙了。,targetId:5,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:为了村庄，我会去查个水落石出。,targetId:-1,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:这是唯一的办法了，我去。,targetId:5,isTakeTask:true;
+text:去哥布林的老巢？这太疯狂了。,targetId:4,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:我会继承守卫队长的遗志。不管那个金色传送门通向哪里，不管这背后还有什么敌人，我都会把它们全部消灭！,target-1,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你缓缓捡起沉重的盾牌，眼中的悲伤逐渐变成了坚毅） 可恶，Ramon 已经不在了……但我还在！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你站在光芒耀眼的传送门前，甚至能感觉到对面吹来的干燥热风） 这个金色的漩涡……那张纸条上说，哥布林已经去联合新的盟友了。如果我没猜错，这后面就是它们的集结地——沙漠世界。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:不知道现在的村庄怎么样了……希望一切都还来得及。,targetId:-1,isTakeTask:true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管你想做什么，想要在这个世界立足，光会采蘑菇是不够的。拿着这些补给，先去休息一下。稍后，我有个更棘手的任务想委托给你——那是关于战斗的试炼。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:需要我帮忙吗？,targetId:4,isTakeTask:false;
+text:听起来很糟糕，但我只想找回记忆。,targetId:4,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（金色的传送门开始闪烁，似乎因为失去了魔力维持即将关闭） 传送门快要消失了，我得赶紧回去。</t>
+  </si>
+  <si>
+    <t>虽然你采蘑菇很利索，但在战场上那是两码事。我想给你一把武器，但村里的铁剑库存紧缺，我必须把剑给真正有实力的人。 去村口，用你的拳头解决掉一只史莱姆和一只甲龟。证明你有资格拿剑。</t>
+  </si>
+  <si>
+    <t>（Ramon 解下腰间备用的一把长剑，双手递给你） 拿着。这是你应该得到的报酬——一把精制铁剑。虽然不是什么神兵利器，但斩开甲龟的硬壳绰绰有余。从此以后，你不再是手无寸铁的难民了。</t>
+  </si>
+  <si>
+    <t>（Ramon 看到你回来，立刻迎了上来，神情有些焦急） 情况怎么样？找到野兽发狂的源头了吗？我看你好像还没查出什么结果。</t>
+  </si>
+  <si>
+    <t>（Ramon 满脸疲惫，盔甲上多了几道新划痕，看来刚才村口又经历了一场恶战） 你终于回来了！快告诉我，你在密林深处到底看到了什么？为什么野兽都不受控制的攻击人类？</t>
+  </si>
+  <si>
+    <t>（听完你的描述，Ramon 的脸色变得极其难看） 绿色的大锅……还有刺鼻的气味……该死，果然是它们！只有哥布林才会使用这种邪恶的炼金术。 原来如此，它们在用那种药水给史莱姆和甲龟下蛊，控制了它们的心智来攻击我们！</t>
+  </si>
+  <si>
+    <t>我想立刻冲进去毁了它，但你也看到了，我必须留在这里指挥防守，否则村庄立刻就会沦陷。现在我能信任的人只有你了。 勇士，虽然这很危险，但我请求你——进入那个传送门，去哥布林的地盘查清楚它们到底在策划什么阴谋！</t>
+  </si>
+  <si>
+    <t>我要你通过那个传送门，潜入哥布林的地牢世界。虽然我很想派一支军队支援你，但现在村庄危在旦夕，我必须留守。 这可能是一趟单程票……但我相信如果是你，一定能查明真相并活着回来。去调查哥布林到底在搞什么鬼。</t>
+  </si>
+  <si>
+    <t>（看到你回来，Ramon 几乎是从椅子上跳了起来） 怎么样？你通过那个漩涡了吗？有没有查到哥布林到底在策划什么？快告诉我，是不是大举进攻马上就要开始了？</t>
+  </si>
+  <si>
+    <t>（你气喘吁吁地跑回村口，却发现这里空无一人） Ramon 队长？你在哪里！我带回了哥布林的情报！ （你环顾四周，只看到了满地的狼藉和远处徘徊的哥布林）</t>
+  </si>
+  <si>
+    <t>（你的目光落在脚边的血泊中，那里静静地躺着一面熟悉的盾牌） 这是……Ramon 的盾牌？上面全是缺口和血迹…… 不……不会的。那样强壮的战士，怎么会……</t>
+  </si>
+  <si>
+    <t>（你紧紧攥着从地牢带回的那张纸条，上面的字迹此刻显得格外刺眼） 人类已经快扛不住了，马上时机就成熟啦，你我一起踏平人类世界…… 可恶！原来当我们去调查的时候，它们就已经发动了总攻。Ramon 是为了守卫村庄才……</t>
+  </si>
+  <si>
+    <t>（你低头看了一眼手中 Ramon 留下的盾牌，握紧了剑柄） Ramon 队长为了守护这里付出了生命，现在只有我能阻止这场浩劫了。哥布林和那个所谓的‘石头人’正在做最后的进攻准备，我必须在它们出发前解决掉它们！</t>
+  </si>
+  <si>
+    <t>（深吸一口气，你在这个未知的入口前做出了决定） 只要跨过这一步，就没有退路了。是为了 Ramon，也是为了幸存的人们……我要去终结这一切。</t>
+  </si>
+  <si>
+    <t>（刚一落地，灼热的气浪就扑面而来，漫天的黄沙让你几乎睁不开眼） 咳咳……这里就是沙漠世界吗？空气烫得像着了火一样，和人类世界完全不同。</t>
+  </si>
+  <si>
+    <t>（你眯起眼睛观察四周，发现沙丘之间到处都是绿色的身影） 糟了，我不该惊讶的。哥布林的大部队已经抵达了这里，它们马上就要准备做最后的进攻了</t>
+  </si>
+  <si>
+    <t>（在大地的震颤中，一个巨大的岩石身影缓缓站了起来，遮住了太阳） 天哪，看那个大家伙……那是石头人！它的体型比传说中还要巨大，浑身散发着危险的气息。哥布林竟然真的联合了这种怪物。</t>
+  </si>
+  <si>
+    <t>（你举起 Ramon 的盾牌，用力拍击了一下剑身，发出清脆的响声） 绝不能让这支军队跨过传送门！哪怕只有我一个人，我也要把它拦在这里。为了 Ramon，为了村庄……杀光它们！</t>
+  </si>
+  <si>
+    <t>（随着一声震耳欲聋的巨响，巨大的岩石身躯轰然倒塌，化作一堆碎石。周围的哥布林看到首领倒下，尖叫着四散而逃） 终于……结束了。那个大家伙倒下了，哥布林的野心也随之粉碎了。</t>
+  </si>
+  <si>
+    <t>（你大口喘着粗气，汗水浸透了盔甲。你缓缓举起手中满是划痕的盾牌，看向天空） Ramon 队长，你看到了吗？我做到了。无论是哥布林还是石头人，都别想再踏入我们的世界半步。</t>
+  </si>
+  <si>
+    <t>targetId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:只要能活下去，我什么都愿意做。,targetId:5,isTakeTask:false;
+text:史莱姆？听起来很危险，我不想去。,targetId:4,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:没问题，我去采回来。,targetId:-1,isTakeTask:true;
+text:我现在连路都走不动，还是算了吧。,targetId:6,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:这并不难，只要稍微细心一点。,targetId:1,isTakeTask:true;
+text:现在可以给我一些吃的了吗？,targetId:2,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -354,20 +762,208 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -375,18 +971,293 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,7 +1273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,42 +1283,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -477,12 +1348,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -512,6 +1400,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,13 +1478,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -588,6 +1486,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,30 +1557,51 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985424F-174B-4423-91B4-598981325118}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="149.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="224.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="200.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -683,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -700,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -717,16 +1643,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,16 +1657,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -751,16 +1671,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -768,16 +1688,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -785,81 +1705,72 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -870,16 +1781,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -887,33 +1795,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,50 +1826,47 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="E16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -972,50 +1874,44 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1023,54 +1919,822 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="E22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="E23">
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73">
         <v>2</v>
       </c>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Excel/DialoguePieceInfo.xlsx
+++ b/Assets/Excel/DialoguePieceInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B7A343-7FBB-42DA-AF87-F42CA032A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0612C-C2B3-4639-93BC-90AA5FF86025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7ED7948E-4C73-4A5D-8914-27E9B5107D2B}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>task1-Completed-4</t>
   </si>
   <si>
-    <t>task1-Completed-5</t>
-  </si>
-  <si>
     <t>既然你有了武器，也就有了承担更大责任的能力。我一直想知道，为什么这些野物会频繁攻击村庄。我想委托你去密林深处调查一番，如果是你的话，或许能查出真相。</t>
   </si>
   <si>
@@ -469,11 +466,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>text:哥布林？但我没看到它们。,targetId:-1,isTakeTask:false;
-text:那个漩涡又是做什么的？,targetId:-1,isTakeTask:false;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>text:我去把那个传送门砸了。,targetId:1,isTakeTask:false;
 text:我们对那边的情况一无所知。,targetId:2,isTakeTask:false;</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -499,11 +491,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>text:谢谢，我会善用它的。,targetId:5,isTakeTask:true;
-text:终于有象样的家伙了。,targetId:5,isTakeTask:true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>text:为了村庄，我会去查个水落石出。,targetId:-1,isTakeTask:true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -513,10 +500,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>text:我会继承守卫队长的遗志。不管那个金色传送门通向哪里，不管这背后还有什么敌人，我都会把它们全部消灭！,target-1,isTakeTask:true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>（你缓缓捡起沉重的盾牌，眼中的悲伤逐渐变成了坚毅） 可恶，Ramon 已经不在了……但我还在！</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -614,6 +597,23 @@
   <si>
     <t>text:这并不难，只要稍微细心一点。,targetId:1,isTakeTask:true;
 text:现在可以给我一些吃的了吗？,targetId:2,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>task1-Completed-3</t>
+  </si>
+  <si>
+    <t>text:谢谢，我会善用它的。,targetId:4,isTakeTask:true;
+text:终于有象样的家伙了。,targetId:4,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:哥布林？但我没看到它们。,targetId:2,isTakeTask:false;
+text:那个漩涡又是做什么的？,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:我会继承守卫队长的遗志。不管那个金色传送门通向哪里，不管这背后还有什么敌人，我都会把它们全部消灭！,targetId:-1,isTakeTask:true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985424F-174B-4423-91B4-598981325118}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" topLeftCell="D51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1694,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1711,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -1742,7 +1742,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1801,7 +1801,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1846,7 +1846,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1860,10 +1860,10 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -1880,7 +1880,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -1922,10 +1922,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1959,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -1990,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>-1</v>
@@ -2049,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -2066,7 +2066,7 @@
         <v>59</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>61</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -2088,13 +2088,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -2105,13 +2105,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
       </c>
       <c r="E33">
         <v>-1</v>
@@ -2122,13 +2122,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -2139,10 +2139,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2153,10 +2153,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
         <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2167,13 +2167,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -2184,13 +2184,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -2201,10 +2201,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -2215,10 +2215,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -2229,13 +2229,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41">
         <v>-1</v>
@@ -2246,10 +2246,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -2260,10 +2260,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
       <c r="E43">
         <v>-1</v>
@@ -2274,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
       </c>
       <c r="E44">
         <v>-1</v>
@@ -2288,13 +2288,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -2305,13 +2305,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -2322,10 +2322,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
         <v>89</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -2336,10 +2336,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -2350,13 +2350,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -2367,13 +2367,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>94</v>
       </c>
-      <c r="C50" t="s">
-        <v>95</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50">
         <v>-1</v>
@@ -2384,10 +2384,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2398,10 +2398,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2412,13 +2412,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E53">
         <v>-1</v>
@@ -2429,13 +2429,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
         <v>101</v>
       </c>
-      <c r="C54" t="s">
-        <v>102</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -2446,10 +2446,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
       </c>
       <c r="E55">
         <v>-1</v>
@@ -2460,10 +2460,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
       </c>
       <c r="E56">
         <v>-1</v>
@@ -2474,13 +2474,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E57">
         <v>-1</v>
@@ -2491,10 +2491,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
         <v>108</v>
-      </c>
-      <c r="C58" t="s">
-        <v>109</v>
       </c>
       <c r="E58">
         <v>-1</v>
@@ -2505,10 +2505,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
         <v>110</v>
-      </c>
-      <c r="C59" t="s">
-        <v>111</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -2519,10 +2519,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
         <v>112</v>
-      </c>
-      <c r="C60" t="s">
-        <v>113</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -2533,10 +2533,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2547,10 +2547,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2561,10 +2561,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -2575,13 +2575,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="E64">
         <v>-1</v>
@@ -2592,10 +2592,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2606,10 +2606,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2620,13 +2620,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E67">
         <v>-1</v>
@@ -2637,10 +2637,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2665,10 +2665,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -2679,10 +2679,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E71">
         <v>-1</v>
@@ -2693,10 +2693,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2707,10 +2707,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2721,13 +2721,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E74">
         <v>-1</v>

--- a/Assets/Excel/DialoguePieceInfo.xlsx
+++ b/Assets/Excel/DialoguePieceInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0612C-C2B3-4639-93BC-90AA5FF86025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C3325-5560-4F22-807A-A7FEE1384821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7ED7948E-4C73-4A5D-8914-27E9B5107D2B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
@@ -491,24 +491,12 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>text:为了村庄，我会去查个水落石出。,targetId:-1,isTakeTask:true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>text:这是唯一的办法了，我去。,targetId:5,isTakeTask:true;
 text:去哥布林的老巢？这太疯狂了。,targetId:4,isTakeTask:false;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>（你缓缓捡起沉重的盾牌，眼中的悲伤逐渐变成了坚毅） 可恶，Ramon 已经不在了……但我还在！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>（你站在光芒耀眼的传送门前，甚至能感觉到对面吹来的干燥热风） 这个金色的漩涡……那张纸条上说，哥布林已经去联合新的盟友了。如果我没猜错，这后面就是它们的集结地——沙漠世界。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:不知道现在的村庄怎么样了……希望一切都还来得及。,targetId:-1,isTakeTask:true</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -521,9 +509,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>（金色的传送门开始闪烁，似乎因为失去了魔力维持即将关闭） 传送门快要消失了，我得赶紧回去。</t>
-  </si>
-  <si>
     <t>虽然你采蘑菇很利索，但在战场上那是两码事。我想给你一把武器，但村里的铁剑库存紧缺，我必须把剑给真正有实力的人。 去村口，用你的拳头解决掉一只史莱姆和一只甲龟。证明你有资格拿剑。</t>
   </si>
   <si>
@@ -539,24 +524,9 @@
     <t>（听完你的描述，Ramon 的脸色变得极其难看） 绿色的大锅……还有刺鼻的气味……该死，果然是它们！只有哥布林才会使用这种邪恶的炼金术。 原来如此，它们在用那种药水给史莱姆和甲龟下蛊，控制了它们的心智来攻击我们！</t>
   </si>
   <si>
-    <t>我想立刻冲进去毁了它，但你也看到了，我必须留在这里指挥防守，否则村庄立刻就会沦陷。现在我能信任的人只有你了。 勇士，虽然这很危险，但我请求你——进入那个传送门，去哥布林的地盘查清楚它们到底在策划什么阴谋！</t>
-  </si>
-  <si>
     <t>我要你通过那个传送门，潜入哥布林的地牢世界。虽然我很想派一支军队支援你，但现在村庄危在旦夕，我必须留守。 这可能是一趟单程票……但我相信如果是你，一定能查明真相并活着回来。去调查哥布林到底在搞什么鬼。</t>
   </si>
   <si>
-    <t>（看到你回来，Ramon 几乎是从椅子上跳了起来） 怎么样？你通过那个漩涡了吗？有没有查到哥布林到底在策划什么？快告诉我，是不是大举进攻马上就要开始了？</t>
-  </si>
-  <si>
-    <t>（你气喘吁吁地跑回村口，却发现这里空无一人） Ramon 队长？你在哪里！我带回了哥布林的情报！ （你环顾四周，只看到了满地的狼藉和远处徘徊的哥布林）</t>
-  </si>
-  <si>
-    <t>（你的目光落在脚边的血泊中，那里静静地躺着一面熟悉的盾牌） 这是……Ramon 的盾牌？上面全是缺口和血迹…… 不……不会的。那样强壮的战士，怎么会……</t>
-  </si>
-  <si>
-    <t>（你紧紧攥着从地牢带回的那张纸条，上面的字迹此刻显得格外刺眼） 人类已经快扛不住了，马上时机就成熟啦，你我一起踏平人类世界…… 可恶！原来当我们去调查的时候，它们就已经发动了总攻。Ramon 是为了守卫村庄才……</t>
-  </si>
-  <si>
     <t>（你低头看了一眼手中 Ramon 留下的盾牌，握紧了剑柄） Ramon 队长为了守护这里付出了生命，现在只有我能阻止这场浩劫了。哥布林和那个所谓的‘石头人’正在做最后的进攻准备，我必须在它们出发前解决掉它们！</t>
   </si>
   <si>
@@ -573,12 +543,6 @@
   </si>
   <si>
     <t>（你举起 Ramon 的盾牌，用力拍击了一下剑身，发出清脆的响声） 绝不能让这支军队跨过传送门！哪怕只有我一个人，我也要把它拦在这里。为了 Ramon，为了村庄……杀光它们！</t>
-  </si>
-  <si>
-    <t>（随着一声震耳欲聋的巨响，巨大的岩石身躯轰然倒塌，化作一堆碎石。周围的哥布林看到首领倒下，尖叫着四散而逃） 终于……结束了。那个大家伙倒下了，哥布林的野心也随之粉碎了。</t>
-  </si>
-  <si>
-    <t>（你大口喘着粗气，汗水浸透了盔甲。你缓缓举起手中满是划痕的盾牌，看向天空） Ramon 队长，你看到了吗？我做到了。无论是哥布林还是石头人，都别想再踏入我们的世界半步。</t>
   </si>
   <si>
     <t>targetId</t>
@@ -613,7 +577,67 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>text:我会继承守卫队长的遗志。不管那个金色传送门通向哪里，不管这背后还有什么敌人，我都会把它们全部消灭！,targetId:-1,isTakeTask:true;</t>
+    <t>（看到你回来，Ramon 几乎激动地跳了起来） 怎么样？你通过那个漩涡了吗？有没有查到哥布林到底在策划什么？快告诉我，是不是大举进攻马上就要开始了？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你跑回村口，这里死一般的寂静。周围横七竖八地躺着十几具哥布林的尸体，而在血泊中央，Ramon 仰面躺在地上，双眼紧闭，胸口的起伏已经完全停止了）</t>
+  </si>
+  <si>
+    <t>（你走到他身边。那把总是挂在腰间的佩剑断成了两截，散落在手边。盾牌上也满是深深的凹痕，静静地躺在一旁。这位总是严厉训斥你的队长，现在却连呼吸都做不到了）</t>
+  </si>
+  <si>
+    <t>（脑海中闪过地牢里那张“总攻计划书”，看着满地的狼藉，明白 Ramon 是为了不让怪物冲进村子，一个人挡住了它们的先头部队，直到力竭战死）,“这些该死的畜生……趁我离开的时候动手了吗……</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你看着散落在尸首旁，沾满尘土的盾牌，与满是鲜血的断剑。Ramon未寒的尸体让你感到一种冰冷的责任。你不再迷茫，眼神中只剩下纯粹的杀意）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:你说过要等我的情报……结果你自己却先躺下了。,targetId:2,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:这些该死的畜生……趁我离开的时候动手了吗……,targetId:3,isTakeTask:false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:休息吧，Ramon。剩下的交给我。我会带着你的盾牌穿过那扇门，把它们杀得干干净净。,targetId:-1,isTakeTask:true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你迈出传送门，身后狂暴的魔法波动终于归于沉寂。清凉的晚风吹在脸上，带走了沙漠的燥热和战场的血腥味。结束了……所有的疯狂和杀戮，都在这一刻画上了句号。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看着眼前正在清理废墟、重建家园的村民，你突然感到一种深深的疲惫，但随之而来的是前所未有的轻松。那个必须时刻紧绷神经、为了生存而挣扎的长夜，终于过去了。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你看到在 Ramon 战死的地方，人们用剑立在地上，像是一座无名的墓碑。你长长地呼出一口气，对着虚空露出了一个疲惫却释然的微笑。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:任务完成了，队长。村子守住了……你可以安心睡个好觉了。,targetId:-1,isTakeTask:true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想立刻冲进去毁了它，但你也看到了，我必须留在这里指挥防守，否则村庄立刻就会沦陷。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（Ramon 咬了咬牙，将一面蒙尘的盾牌塞进你手里）拿着。这是库房里最后一面备用盾牌了。现在的物资紧缺到连卫兵都分不到防具，但我把它给你。别把它弄丢了，更别死在里面！进那个传送门，查清楚它们在搞什么鬼！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>text:为了村庄，我会去查个水落石出。,targetId:-1,isTakeTask:true;</t>
+  </si>
+  <si>
+    <t>task2-Completed-5</t>
+  </si>
+  <si>
+    <t>text:喂……Ramon？玩笑开过头了吧……起来啊。,targetId:1,isTakeTask:false;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1589,17 +1613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985424F-174B-4423-91B4-598981325118}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="D50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="224.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="223" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="200.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1618,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1677,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1694,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1711,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -1801,7 +1825,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1846,7 +1870,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1860,7 +1884,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>143</v>
@@ -1922,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>130</v>
@@ -2088,13 +2112,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -2232,7 +2256,7 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>137</v>
@@ -2291,7 +2315,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>138</v>
@@ -2308,10 +2332,10 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -2353,44 +2377,44 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
       </c>
       <c r="E50">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2398,30 +2422,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E53">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -2429,27 +2450,30 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E54">
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E55">
         <v>-1</v>
@@ -2460,41 +2484,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E56">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="E57">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>167</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E58">
         <v>-1</v>
@@ -2505,10 +2529,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -2519,10 +2543,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -2533,13 +2557,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,13 +2571,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>183</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2561,13 +2588,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>172</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2575,16 +2605,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E64">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,13 +2622,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,44 +2639,44 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,13 +2684,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,13 +2698,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,13 +2712,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E71">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,13 +2726,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,13 +2740,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,15 +2754,29 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>126</v>
       </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74">
+      <c r="C75" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75">
         <v>-1</v>
       </c>
     </row>
